--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2012-至今)/利润总额.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2012-至今)/利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1832,6 +1832,188 @@
         <v>113.73</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>221.48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>106.59</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.96</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2302.12</v>
+      </c>
+      <c r="H11" t="n">
+        <v>105</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1407.58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>24435.19</v>
+      </c>
+      <c r="L11" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>49.84</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-57.68</v>
+      </c>
+      <c r="O11" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1062.46</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>252.63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S11" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="T11" t="n">
+        <v>242.04</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2553.64</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1182.03</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4267.56</v>
+      </c>
+      <c r="X11" t="n">
+        <v>435.54</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1206.72</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>198.46</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1437.91</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>682.24</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1007.39</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>331.51</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1404.01</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>213.92</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>197.25</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1172.51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>137.76</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1459.97</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>365.06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>23792</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
